--- a/Code/Results/Cases/Case_2_83/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_83/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.69242161852584</v>
+        <v>12.07523809325411</v>
       </c>
       <c r="C2">
-        <v>14.49820992836885</v>
+        <v>9.391514786110049</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.85362834168043</v>
+        <v>23.2621734548212</v>
       </c>
       <c r="F2">
-        <v>26.92421072079232</v>
+        <v>35.99670634690045</v>
       </c>
       <c r="G2">
-        <v>13.41120499823007</v>
+        <v>18.26812227189786</v>
       </c>
       <c r="H2">
-        <v>6.549830977040324</v>
+        <v>11.72971330077861</v>
       </c>
       <c r="I2">
-        <v>8.81319446861461</v>
+        <v>16.306225043786</v>
       </c>
       <c r="J2">
-        <v>4.424497895559918</v>
+        <v>7.284418104089199</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.99312954690237</v>
+        <v>19.31117669893643</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.662401423128363</v>
+        <v>16.43601249144006</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.42150207668919</v>
+        <v>11.35212310554846</v>
       </c>
       <c r="C3">
-        <v>13.70142408606305</v>
+        <v>8.98383837190249</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.31330717899399</v>
+        <v>23.2338489291328</v>
       </c>
       <c r="F3">
-        <v>26.0863179329373</v>
+        <v>36.003228662548</v>
       </c>
       <c r="G3">
-        <v>13.18704270013342</v>
+        <v>18.3960433355379</v>
       </c>
       <c r="H3">
-        <v>6.665513103403181</v>
+        <v>11.79055398353849</v>
       </c>
       <c r="I3">
-        <v>9.205896606892955</v>
+        <v>16.44589654945521</v>
       </c>
       <c r="J3">
-        <v>4.458971089981832</v>
+        <v>7.298631964090283</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.90073239711792</v>
+        <v>19.02447727249596</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.780603104011279</v>
+        <v>16.54337753169289</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.59733566519702</v>
+        <v>10.88203695381998</v>
       </c>
       <c r="C4">
-        <v>13.18806397179489</v>
+        <v>8.72294774832355</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.98420719876968</v>
+        <v>23.22123631705509</v>
       </c>
       <c r="F4">
-        <v>25.58750714167856</v>
+        <v>36.0180941823734</v>
       </c>
       <c r="G4">
-        <v>13.08544461917704</v>
+        <v>18.484990529547</v>
       </c>
       <c r="H4">
-        <v>6.742402015254351</v>
+        <v>11.83028257433835</v>
       </c>
       <c r="I4">
-        <v>9.454389593783869</v>
+        <v>16.53598957653838</v>
       </c>
       <c r="J4">
-        <v>4.481055257034366</v>
+        <v>7.307884849594987</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.19899243546854</v>
+        <v>18.84817603203729</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.868804104527991</v>
+        <v>16.61424485473718</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.25051642965196</v>
+        <v>10.68396523316405</v>
       </c>
       <c r="C5">
-        <v>12.97291723810829</v>
+        <v>8.614084944861343</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.85093224680425</v>
+        <v>23.21730187198964</v>
       </c>
       <c r="F5">
-        <v>25.38840573518244</v>
+        <v>36.02687917133792</v>
       </c>
       <c r="G5">
-        <v>13.05279925606555</v>
+        <v>18.52382546822396</v>
       </c>
       <c r="H5">
-        <v>6.775143289870689</v>
+        <v>11.84706883689647</v>
       </c>
       <c r="I5">
-        <v>9.557510176876105</v>
+        <v>16.57379572467995</v>
       </c>
       <c r="J5">
-        <v>4.490286248287627</v>
+        <v>7.311787960612288</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.90542554250245</v>
+        <v>18.77634164368327</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.908431733199683</v>
+        <v>16.64436352273948</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.19226717879857</v>
+        <v>10.65068437144067</v>
       </c>
       <c r="C6">
-        <v>12.93683709207751</v>
+        <v>8.595858064082448</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.8288575836818</v>
+        <v>23.2167214467881</v>
       </c>
       <c r="F6">
-        <v>25.355603464664</v>
+        <v>36.02850247482139</v>
       </c>
       <c r="G6">
-        <v>13.04789700968026</v>
+        <v>18.53042948112695</v>
       </c>
       <c r="H6">
-        <v>6.780663227537755</v>
+        <v>11.84989221419986</v>
       </c>
       <c r="I6">
-        <v>9.574745667437213</v>
+        <v>16.58013946981514</v>
       </c>
       <c r="J6">
-        <v>4.491833054345949</v>
+        <v>7.312444080990117</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.85622645286672</v>
+        <v>18.76441644802074</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.915227502560917</v>
+        <v>16.64943946900512</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.59270264673572</v>
+        <v>10.87939195813005</v>
       </c>
       <c r="C7">
-        <v>13.18518633306931</v>
+        <v>8.721489742833036</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.98240619405733</v>
+        <v>23.2211783714091</v>
       </c>
       <c r="F7">
-        <v>25.5848048132853</v>
+        <v>36.01820162421076</v>
       </c>
       <c r="G7">
-        <v>13.08496935605008</v>
+        <v>18.48550382854987</v>
       </c>
       <c r="H7">
-        <v>6.742837954588987</v>
+        <v>11.83050654431597</v>
       </c>
       <c r="I7">
-        <v>9.455772783919333</v>
+        <v>16.53649501643003</v>
       </c>
       <c r="J7">
-        <v>4.48117881092424</v>
+        <v>7.307936951439714</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.19506377905125</v>
+        <v>18.84720710670399</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.869323930980153</v>
+        <v>16.61464603120016</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.26332714389169</v>
+        <v>11.83135035864673</v>
       </c>
       <c r="C8">
-        <v>14.22854941176729</v>
+        <v>9.253204952030735</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.66687098826804</v>
+        <v>23.25141775897441</v>
       </c>
       <c r="F8">
-        <v>26.6321943611784</v>
+        <v>35.99669934474885</v>
       </c>
       <c r="G8">
-        <v>13.3262746554682</v>
+        <v>18.31005381041722</v>
       </c>
       <c r="H8">
-        <v>6.588461045156029</v>
+        <v>11.75019884526946</v>
       </c>
       <c r="I8">
-        <v>8.94706886354486</v>
+        <v>16.35348582221637</v>
       </c>
       <c r="J8">
-        <v>4.436194307289701</v>
+        <v>7.289210175933114</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.62300789128009</v>
+        <v>19.21242394260137</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.699764700693205</v>
+        <v>16.4720034087217</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.19059236692998</v>
+        <v>13.48949190502424</v>
       </c>
       <c r="C9">
-        <v>16.07922479686312</v>
+        <v>10.20785983860373</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.02344170900362</v>
+        <v>23.34843964711696</v>
       </c>
       <c r="F9">
-        <v>28.80034233438031</v>
+        <v>36.04079492487867</v>
       </c>
       <c r="G9">
-        <v>14.09482238094368</v>
+        <v>18.0497446944023</v>
       </c>
       <c r="H9">
-        <v>6.335462733637093</v>
+        <v>11.61153593834539</v>
       </c>
       <c r="I9">
-        <v>8.00813029180868</v>
+        <v>16.02887280777987</v>
       </c>
       <c r="J9">
-        <v>4.355223829572086</v>
+        <v>7.25664142868387</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.17090996210888</v>
+        <v>19.92317005409375</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.502590571866827</v>
+        <v>16.23168535318849</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.12840108116086</v>
+        <v>14.5791195121037</v>
       </c>
       <c r="C10">
-        <v>17.31618752975895</v>
+        <v>10.85100872393255</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.02085529888031</v>
+        <v>23.44240639995836</v>
       </c>
       <c r="F10">
-        <v>30.45031345989572</v>
+        <v>36.12576944905005</v>
       </c>
       <c r="G10">
-        <v>14.84644753161146</v>
+        <v>17.91113474986555</v>
       </c>
       <c r="H10">
-        <v>6.184897369522599</v>
+        <v>11.52113110542411</v>
       </c>
       <c r="I10">
-        <v>7.354927986855732</v>
+        <v>15.81109735533567</v>
       </c>
       <c r="J10">
-        <v>4.300102591814496</v>
+        <v>7.235224515857869</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.98774065127892</v>
+        <v>20.43768193940945</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.456182258702096</v>
+        <v>16.07938023751209</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.96399604989038</v>
+        <v>15.04676010692907</v>
       </c>
       <c r="C11">
-        <v>17.85186143883487</v>
+        <v>11.13021842398306</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.47341502051065</v>
+        <v>23.48999571610281</v>
       </c>
       <c r="F11">
-        <v>31.211023466162</v>
+        <v>36.17579700184368</v>
       </c>
       <c r="G11">
-        <v>15.22896374549828</v>
+        <v>17.85982512121676</v>
       </c>
       <c r="H11">
-        <v>6.125320399836156</v>
+        <v>11.48249450319102</v>
       </c>
       <c r="I11">
-        <v>7.066236322405407</v>
+        <v>15.71648793253985</v>
       </c>
       <c r="J11">
-        <v>4.275965578913866</v>
+        <v>7.226022223030435</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.80102813374045</v>
+        <v>20.66919590735545</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.459906775397375</v>
+        <v>16.01541195488235</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.27384356898082</v>
+        <v>15.21980742491598</v>
       </c>
       <c r="C12">
-        <v>18.05080470073554</v>
+        <v>11.23397828424744</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.64453141045816</v>
+        <v>23.50870441992573</v>
       </c>
       <c r="F12">
-        <v>31.50038399954305</v>
+        <v>36.19636889253367</v>
       </c>
       <c r="G12">
-        <v>15.37957130659946</v>
+        <v>17.84210865442279</v>
       </c>
       <c r="H12">
-        <v>6.104158786546587</v>
+        <v>11.4682219040308</v>
       </c>
       <c r="I12">
-        <v>6.958208847121059</v>
+        <v>15.68130019140627</v>
       </c>
       <c r="J12">
-        <v>4.266959796312335</v>
+        <v>7.222614917676474</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.10261448387763</v>
+        <v>20.75642831546692</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.465167277746779</v>
+        <v>15.99195782659782</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.20740418089107</v>
+        <v>15.18271823482475</v>
       </c>
       <c r="C13">
-        <v>18.00813254748817</v>
+        <v>11.21172009218949</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.60769113839256</v>
+        <v>23.50464473105883</v>
       </c>
       <c r="F13">
-        <v>31.43800960718839</v>
+        <v>36.19186612945641</v>
       </c>
       <c r="G13">
-        <v>15.3468809219039</v>
+        <v>17.84584763519674</v>
       </c>
       <c r="H13">
-        <v>6.108652133927631</v>
+        <v>11.47127982505825</v>
       </c>
       <c r="I13">
-        <v>6.98141533522839</v>
+        <v>15.68885012537996</v>
       </c>
       <c r="J13">
-        <v>4.268893383119514</v>
+        <v>7.223345304079396</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.03794528235741</v>
+        <v>20.73766179721795</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.463858768798019</v>
+        <v>15.99697480144195</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.98961894560779</v>
+        <v>15.06107776247423</v>
       </c>
       <c r="C14">
-        <v>17.86830694321915</v>
+        <v>11.13879456123492</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.48749848807377</v>
+        <v>23.4915211640985</v>
       </c>
       <c r="F14">
-        <v>31.23480416305503</v>
+        <v>36.17745689760315</v>
       </c>
       <c r="G14">
-        <v>15.24123954217256</v>
+        <v>17.85833310309272</v>
       </c>
       <c r="H14">
-        <v>6.123550680000712</v>
+        <v>11.48131310613246</v>
       </c>
       <c r="I14">
-        <v>7.057322336237523</v>
+        <v>15.71358022607205</v>
       </c>
       <c r="J14">
-        <v>4.27522197711278</v>
+        <v>7.225740352405801</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.8259673851947</v>
+        <v>20.6763817264812</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.460260836678772</v>
+        <v>16.01346692433085</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.85536408659481</v>
+        <v>14.98604347896989</v>
       </c>
       <c r="C15">
-        <v>17.7821508535924</v>
+        <v>11.09386758869244</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.41384106474942</v>
+        <v>23.4835718785192</v>
       </c>
       <c r="F15">
-        <v>31.11049952491624</v>
+        <v>36.16884251302664</v>
       </c>
       <c r="G15">
-        <v>15.17727780486534</v>
+        <v>17.86620464708167</v>
       </c>
       <c r="H15">
-        <v>6.13286228707198</v>
+        <v>11.4875054447035</v>
       </c>
       <c r="I15">
-        <v>7.103988960129261</v>
+        <v>15.72881125152748</v>
       </c>
       <c r="J15">
-        <v>4.27911591071992</v>
+        <v>7.22721745996492</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.69529529666191</v>
+        <v>20.63878693817096</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.458566505171598</v>
+        <v>16.02366915240858</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.07287119957806</v>
+        <v>14.54799327749438</v>
       </c>
       <c r="C16">
-        <v>17.28063428719884</v>
+        <v>10.83248842501632</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.99124778700936</v>
+        <v>23.43939305367891</v>
       </c>
       <c r="F16">
-        <v>30.40078869518902</v>
+        <v>36.12272825500223</v>
       </c>
       <c r="G16">
-        <v>14.82226014968184</v>
+        <v>17.91472641563005</v>
       </c>
       <c r="H16">
-        <v>6.188980028202636</v>
+        <v>11.52370621061804</v>
       </c>
       <c r="I16">
-        <v>7.373970710519054</v>
+        <v>15.81736981345722</v>
       </c>
       <c r="J16">
-        <v>4.301698831958407</v>
+        <v>7.235836755116116</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.93369213241793</v>
+        <v>20.42249465489047</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.456462646042695</v>
+        <v>16.08366809895838</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.58109303359686</v>
+        <v>14.27207675512299</v>
       </c>
       <c r="C17">
-        <v>16.96603098699652</v>
+        <v>10.66868062614685</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>18.73163082675312</v>
+        <v>23.41352528260452</v>
       </c>
       <c r="F17">
-        <v>29.96787486087187</v>
+        <v>36.09734651996864</v>
       </c>
       <c r="G17">
-        <v>14.61482242480128</v>
+        <v>17.94751893558348</v>
       </c>
       <c r="H17">
-        <v>6.225769928344402</v>
+        <v>11.54655192439082</v>
       </c>
       <c r="I17">
-        <v>7.541806571085778</v>
+        <v>15.87283775738665</v>
       </c>
       <c r="J17">
-        <v>4.315792572592195</v>
+        <v>7.241262599545902</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.45501019908274</v>
+        <v>20.28910390136931</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.461734040715561</v>
+        <v>16.12184049171283</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.29391024655016</v>
+        <v>14.11073798900615</v>
       </c>
       <c r="C18">
-        <v>16.78253588926663</v>
+        <v>10.5732073956872</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.58220018045328</v>
+        <v>23.39910328742958</v>
       </c>
       <c r="F18">
-        <v>29.71983555830381</v>
+        <v>36.08381862901884</v>
       </c>
       <c r="G18">
-        <v>14.4993390675956</v>
+        <v>17.96748441524342</v>
       </c>
       <c r="H18">
-        <v>6.24776211049117</v>
+        <v>11.55992643025292</v>
       </c>
       <c r="I18">
-        <v>7.639130651627168</v>
+        <v>15.90516116346166</v>
       </c>
       <c r="J18">
-        <v>4.323987225420551</v>
+        <v>7.244434281553344</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.17544729431835</v>
+        <v>20.21214609824396</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.467087378063512</v>
+        <v>16.14429632280164</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.19593151784106</v>
+        <v>14.05565849865145</v>
       </c>
       <c r="C19">
-        <v>16.71997149471317</v>
+        <v>10.54066784127755</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.53159042104999</v>
+        <v>23.39429890000083</v>
       </c>
       <c r="F19">
-        <v>29.63602419984654</v>
+        <v>36.07942246559171</v>
       </c>
       <c r="G19">
-        <v>14.46089785852511</v>
+        <v>17.97443324234078</v>
       </c>
       <c r="H19">
-        <v>6.255347721740094</v>
+        <v>11.56449503238402</v>
       </c>
       <c r="I19">
-        <v>7.672216617835788</v>
+        <v>15.91617746773882</v>
       </c>
       <c r="J19">
-        <v>4.326776976866196</v>
+        <v>7.245516906469509</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.08006192746991</v>
+        <v>20.18605138157895</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.469289989647308</v>
+        <v>16.1519852250042</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.63389109368024</v>
+        <v>14.30172171531134</v>
       </c>
       <c r="C20">
-        <v>16.99978446936682</v>
+        <v>10.68624855062548</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.7592791645976</v>
+        <v>23.41623176991982</v>
       </c>
       <c r="F20">
-        <v>30.01386104835611</v>
+        <v>36.09993765256256</v>
       </c>
       <c r="G20">
-        <v>14.63650866144189</v>
+        <v>17.94391366469279</v>
       </c>
       <c r="H20">
-        <v>6.221766699148463</v>
+        <v>11.5440957123248</v>
       </c>
       <c r="I20">
-        <v>7.523858002030061</v>
+        <v>15.86688967768886</v>
       </c>
       <c r="J20">
-        <v>4.314283134304351</v>
+        <v>7.240679745462939</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.50640473708106</v>
+        <v>20.30332842131819</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.460930590569875</v>
+        <v>16.11772518418546</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.05376588783808</v>
+        <v>15.09691613710391</v>
       </c>
       <c r="C21">
-        <v>17.90948317730551</v>
+        <v>11.16026839673493</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.52280960866676</v>
+        <v>23.49535728525168</v>
       </c>
       <c r="F21">
-        <v>31.2944564751124</v>
+        <v>36.18164514004837</v>
       </c>
       <c r="G21">
-        <v>15.27211356930304</v>
+        <v>17.85461912998875</v>
       </c>
       <c r="H21">
-        <v>6.119135668919201</v>
+        <v>11.47835636285802</v>
       </c>
       <c r="I21">
-        <v>7.034990701708864</v>
+        <v>15.70629907681465</v>
       </c>
       <c r="J21">
-        <v>4.273359472134286</v>
+        <v>7.2250347703375</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.88840315467418</v>
+        <v>20.69439358293953</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.46121097324836</v>
+        <v>16.0086018713589</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.94343685325189</v>
+        <v>15.59308502759218</v>
       </c>
       <c r="C22">
-        <v>18.48126295127295</v>
+        <v>11.45856316833509</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.02028858362271</v>
+        <v>23.5510739310241</v>
       </c>
       <c r="F22">
-        <v>32.13890292125564</v>
+        <v>36.24452711934163</v>
       </c>
       <c r="G22">
-        <v>15.72101280041135</v>
+        <v>17.80625715694342</v>
       </c>
       <c r="H22">
-        <v>6.060275664321516</v>
+        <v>11.43748019286905</v>
       </c>
       <c r="I22">
-        <v>6.723092424149716</v>
+        <v>15.605066218982</v>
       </c>
       <c r="J22">
-        <v>4.247396593977677</v>
+        <v>7.215260902480206</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.75442417321714</v>
+        <v>20.94739948807536</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.483956819657974</v>
+        <v>15.94176968297041</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.47209500617819</v>
+        <v>15.33042493178443</v>
       </c>
       <c r="C23">
-        <v>18.17817908967788</v>
+        <v>11.3004245336141</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.7549394872642</v>
+        <v>23.52097371067316</v>
       </c>
       <c r="F23">
-        <v>31.6875642268409</v>
+        <v>36.21010140626915</v>
       </c>
       <c r="G23">
-        <v>15.4783980139773</v>
+        <v>17.83114640190173</v>
       </c>
       <c r="H23">
-        <v>6.090897410024346</v>
+        <v>11.45910537754291</v>
       </c>
       <c r="I23">
-        <v>6.888827123828384</v>
+        <v>15.65875622369347</v>
       </c>
       <c r="J23">
-        <v>4.261181958495939</v>
+        <v>7.220436229273293</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.29558884226987</v>
+        <v>20.81262425785341</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.469663164132234</v>
+        <v>15.97702717539677</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.61003496286354</v>
+        <v>14.28832767149089</v>
       </c>
       <c r="C24">
-        <v>16.98453269621483</v>
+        <v>10.6783101309834</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.74677988407334</v>
+        <v>23.41500676544291</v>
       </c>
       <c r="F24">
-        <v>29.9930680371286</v>
+        <v>36.09876288537495</v>
       </c>
       <c r="G24">
-        <v>14.62669254866833</v>
+        <v>17.94554014379161</v>
       </c>
       <c r="H24">
-        <v>6.223573947699609</v>
+        <v>11.54520541760135</v>
       </c>
       <c r="I24">
-        <v>7.53196996087503</v>
+        <v>15.86957745198962</v>
       </c>
       <c r="J24">
-        <v>4.314965264838901</v>
+        <v>7.240943090880419</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.4831828599059</v>
+        <v>20.29689835035269</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.461286616834913</v>
+        <v>16.1195841264031</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.43611365518881</v>
+        <v>13.06343800502107</v>
       </c>
       <c r="C25">
-        <v>15.59993168345134</v>
+        <v>9.959544686137756</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.6558041175105</v>
+        <v>23.31818290058751</v>
       </c>
       <c r="F25">
-        <v>28.20292964512533</v>
+        <v>36.01962360480487</v>
       </c>
       <c r="G25">
-        <v>13.85428038614293</v>
+        <v>18.11103213131339</v>
       </c>
       <c r="H25">
-        <v>6.39809663308451</v>
+        <v>11.64703348110418</v>
       </c>
       <c r="I25">
-        <v>8.255814708273165</v>
+        <v>16.11303866356057</v>
       </c>
       <c r="J25">
-        <v>4.376358149269534</v>
+        <v>7.265009593096779</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.50936858391021</v>
+        <v>19.73193375801584</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.539813392588558</v>
+        <v>16.29245537891904</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_83/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_83/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.07523809325411</v>
+        <v>20.69242161852585</v>
       </c>
       <c r="C2">
-        <v>9.391514786110049</v>
+        <v>14.49820992836877</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.2621734548212</v>
+        <v>16.85362834168039</v>
       </c>
       <c r="F2">
-        <v>35.99670634690045</v>
+        <v>26.92421072079235</v>
       </c>
       <c r="G2">
-        <v>18.26812227189786</v>
+        <v>13.41120499823021</v>
       </c>
       <c r="H2">
-        <v>11.72971330077861</v>
+        <v>6.549830977040272</v>
       </c>
       <c r="I2">
-        <v>16.306225043786</v>
+        <v>8.813194468614615</v>
       </c>
       <c r="J2">
-        <v>7.284418104089199</v>
+        <v>4.424497895559884</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.31117669893643</v>
+        <v>18.99312954690235</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.43601249144006</v>
+        <v>9.662401423128394</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.35212310554846</v>
+        <v>19.42150207668918</v>
       </c>
       <c r="C3">
-        <v>8.98383837190249</v>
+        <v>13.70142408606296</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.2338489291328</v>
+        <v>16.31330717899391</v>
       </c>
       <c r="F3">
-        <v>36.003228662548</v>
+        <v>26.08631793293727</v>
       </c>
       <c r="G3">
-        <v>18.3960433355379</v>
+        <v>13.18704270013355</v>
       </c>
       <c r="H3">
-        <v>11.79055398353849</v>
+        <v>6.665513103403183</v>
       </c>
       <c r="I3">
-        <v>16.44589654945521</v>
+        <v>9.205896606892992</v>
       </c>
       <c r="J3">
-        <v>7.298631964090283</v>
+        <v>4.458971089981862</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.02447727249596</v>
+        <v>17.90073239711789</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.54337753169289</v>
+        <v>9.780603104011316</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.88203695381998</v>
+        <v>18.59733566519701</v>
       </c>
       <c r="C4">
-        <v>8.72294774832355</v>
+        <v>13.18806397179489</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.22123631705509</v>
+        <v>15.98420719876961</v>
       </c>
       <c r="F4">
-        <v>36.0180941823734</v>
+        <v>25.58750714167858</v>
       </c>
       <c r="G4">
-        <v>18.484990529547</v>
+        <v>13.08544461917719</v>
       </c>
       <c r="H4">
-        <v>11.83028257433835</v>
+        <v>6.74240201525448</v>
       </c>
       <c r="I4">
-        <v>16.53598957653838</v>
+        <v>9.454389593783974</v>
       </c>
       <c r="J4">
-        <v>7.307884849594987</v>
+        <v>4.481055257034398</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.84817603203729</v>
+        <v>17.19899243546853</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.61424485473718</v>
+        <v>9.868804104528085</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.68396523316405</v>
+        <v>18.25051642965198</v>
       </c>
       <c r="C5">
-        <v>8.614084944861343</v>
+        <v>12.97291723810829</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.21730187198964</v>
+        <v>15.8509322468044</v>
       </c>
       <c r="F5">
-        <v>36.02687917133792</v>
+        <v>25.38840573518252</v>
       </c>
       <c r="G5">
-        <v>18.52382546822396</v>
+        <v>13.05279925606541</v>
       </c>
       <c r="H5">
-        <v>11.84706883689647</v>
+        <v>6.775143289870693</v>
       </c>
       <c r="I5">
-        <v>16.57379572467995</v>
+        <v>9.557510176876043</v>
       </c>
       <c r="J5">
-        <v>7.311787960612288</v>
+        <v>4.490286248287592</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.77634164368327</v>
+        <v>16.90542554250248</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.64436352273948</v>
+        <v>9.908431733199608</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.65068437144067</v>
+        <v>18.19226717879862</v>
       </c>
       <c r="C6">
-        <v>8.595858064082448</v>
+        <v>12.93683709207725</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.2167214467881</v>
+        <v>15.82885758368182</v>
       </c>
       <c r="F6">
-        <v>36.02850247482139</v>
+        <v>25.35560346466404</v>
       </c>
       <c r="G6">
-        <v>18.53042948112695</v>
+        <v>13.04789700968016</v>
       </c>
       <c r="H6">
-        <v>11.84989221419986</v>
+        <v>6.780663227537824</v>
       </c>
       <c r="I6">
-        <v>16.58013946981514</v>
+        <v>9.574745667437055</v>
       </c>
       <c r="J6">
-        <v>7.312444080990117</v>
+        <v>4.491833054345914</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.76441644802074</v>
+        <v>16.85622645286671</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.64943946900512</v>
+        <v>9.91522750256091</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.87939195813005</v>
+        <v>18.59270264673571</v>
       </c>
       <c r="C7">
-        <v>8.721489742833036</v>
+        <v>13.18518633306952</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.2211783714091</v>
+        <v>15.9824061940574</v>
       </c>
       <c r="F7">
-        <v>36.01820162421076</v>
+        <v>25.58480481328531</v>
       </c>
       <c r="G7">
-        <v>18.48550382854987</v>
+        <v>13.08496935604998</v>
       </c>
       <c r="H7">
-        <v>11.83050654431597</v>
+        <v>6.742837954588929</v>
       </c>
       <c r="I7">
-        <v>16.53649501643003</v>
+        <v>9.455772783919269</v>
       </c>
       <c r="J7">
-        <v>7.307936951439714</v>
+        <v>4.481178810924206</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.84720710670399</v>
+        <v>17.19506377905126</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.61464603120016</v>
+        <v>9.869323930980084</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.83135035864673</v>
+        <v>20.26332714389171</v>
       </c>
       <c r="C8">
-        <v>9.253204952030735</v>
+        <v>14.22854941176737</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.25141775897441</v>
+        <v>16.66687098826817</v>
       </c>
       <c r="F8">
-        <v>35.99669934474885</v>
+        <v>26.63219436117841</v>
       </c>
       <c r="G8">
-        <v>18.31005381041722</v>
+        <v>13.326274655468</v>
       </c>
       <c r="H8">
-        <v>11.75019884526946</v>
+        <v>6.588461045155912</v>
       </c>
       <c r="I8">
-        <v>16.35348582221637</v>
+        <v>8.947068863544761</v>
       </c>
       <c r="J8">
-        <v>7.289210175933114</v>
+        <v>4.436194307289766</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.21242394260137</v>
+        <v>18.62300789128011</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.4720034087217</v>
+        <v>9.699764700693084</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.48949190502424</v>
+        <v>23.19059236692999</v>
       </c>
       <c r="C9">
-        <v>10.20785983860373</v>
+        <v>16.07922479686316</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.34843964711696</v>
+        <v>18.02344170900369</v>
       </c>
       <c r="F9">
-        <v>36.04079492487867</v>
+        <v>28.80034233438039</v>
       </c>
       <c r="G9">
-        <v>18.0497446944023</v>
+        <v>14.09482238094366</v>
       </c>
       <c r="H9">
-        <v>11.61153593834539</v>
+        <v>6.335462733637096</v>
       </c>
       <c r="I9">
-        <v>16.02887280777987</v>
+        <v>8.008130291808714</v>
       </c>
       <c r="J9">
-        <v>7.25664142868387</v>
+        <v>4.355223829572118</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.92317005409375</v>
+        <v>21.17090996210889</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.23168535318849</v>
+        <v>9.502590571866831</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.5791195121037</v>
+        <v>25.12840108116083</v>
       </c>
       <c r="C10">
-        <v>10.85100872393255</v>
+        <v>17.31618752975884</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.44240639995836</v>
+        <v>19.02085529888029</v>
       </c>
       <c r="F10">
-        <v>36.12576944905005</v>
+        <v>30.45031345989577</v>
       </c>
       <c r="G10">
-        <v>17.91113474986555</v>
+        <v>14.8464475316115</v>
       </c>
       <c r="H10">
-        <v>11.52113110542411</v>
+        <v>6.184897369522762</v>
       </c>
       <c r="I10">
-        <v>15.81109735533567</v>
+        <v>7.354927986855866</v>
       </c>
       <c r="J10">
-        <v>7.235224515857869</v>
+        <v>4.300102591814461</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.43768193940945</v>
+        <v>22.9877406512789</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.07938023751209</v>
+        <v>9.456182258702217</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.04676010692907</v>
+        <v>25.96399604989039</v>
       </c>
       <c r="C11">
-        <v>11.13021842398306</v>
+        <v>17.85186143883474</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.48999571610281</v>
+        <v>19.4734150205106</v>
       </c>
       <c r="F11">
-        <v>36.17579700184368</v>
+        <v>31.21102346616199</v>
       </c>
       <c r="G11">
-        <v>17.85982512121676</v>
+        <v>15.22896374549825</v>
       </c>
       <c r="H11">
-        <v>11.48249450319102</v>
+        <v>6.125320399836162</v>
       </c>
       <c r="I11">
-        <v>15.71648793253985</v>
+        <v>7.066236322405442</v>
       </c>
       <c r="J11">
-        <v>7.226022223030435</v>
+        <v>4.275965578913866</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.66919590735545</v>
+        <v>23.80102813374045</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.01541195488235</v>
+        <v>9.459906775397428</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.21980742491598</v>
+        <v>26.27384356898083</v>
       </c>
       <c r="C12">
-        <v>11.23397828424744</v>
+        <v>18.05080470073553</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.50870441992573</v>
+        <v>19.64453141045822</v>
       </c>
       <c r="F12">
-        <v>36.19636889253367</v>
+        <v>31.50038399954308</v>
       </c>
       <c r="G12">
-        <v>17.84210865442279</v>
+        <v>15.3795713065995</v>
       </c>
       <c r="H12">
-        <v>11.4682219040308</v>
+        <v>6.104158786546535</v>
       </c>
       <c r="I12">
-        <v>15.68130019140627</v>
+        <v>6.958208847120967</v>
       </c>
       <c r="J12">
-        <v>7.222614917676474</v>
+        <v>4.266959796312304</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.75642831546692</v>
+        <v>24.10261448387762</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.99195782659782</v>
+        <v>9.46516727774673</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.18271823482475</v>
+        <v>26.2074041808911</v>
       </c>
       <c r="C13">
-        <v>11.21172009218949</v>
+        <v>18.00813254748812</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.50464473105883</v>
+        <v>19.60769113839259</v>
       </c>
       <c r="F13">
-        <v>36.19186612945641</v>
+        <v>31.43800960718846</v>
       </c>
       <c r="G13">
-        <v>17.84584763519674</v>
+        <v>15.34688092190401</v>
       </c>
       <c r="H13">
-        <v>11.47127982505825</v>
+        <v>6.108652133927642</v>
       </c>
       <c r="I13">
-        <v>15.68885012537996</v>
+        <v>6.981415335228437</v>
       </c>
       <c r="J13">
-        <v>7.223345304079396</v>
+        <v>4.268893383119543</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.73766179721795</v>
+        <v>24.03794528235739</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.99697480144195</v>
+        <v>9.463858768798071</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.06107776247423</v>
+        <v>25.98961894560781</v>
       </c>
       <c r="C14">
-        <v>11.13879456123492</v>
+        <v>17.868306943219</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23.4915211640985</v>
+        <v>19.48749848807376</v>
       </c>
       <c r="F14">
-        <v>36.17745689760315</v>
+        <v>31.23480416305503</v>
       </c>
       <c r="G14">
-        <v>17.85833310309272</v>
+        <v>15.24123954217251</v>
       </c>
       <c r="H14">
-        <v>11.48131310613246</v>
+        <v>6.123550680000755</v>
       </c>
       <c r="I14">
-        <v>15.71358022607205</v>
+        <v>7.057322336237484</v>
       </c>
       <c r="J14">
-        <v>7.225740352405801</v>
+        <v>4.275221977112846</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.6763817264812</v>
+        <v>23.8259673851947</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.01346692433085</v>
+        <v>9.460260836678797</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.98604347896989</v>
+        <v>25.85536408659473</v>
       </c>
       <c r="C15">
-        <v>11.09386758869244</v>
+        <v>17.78215085359231</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.4835718785192</v>
+        <v>19.41384106474942</v>
       </c>
       <c r="F15">
-        <v>36.16884251302664</v>
+        <v>31.11049952491629</v>
       </c>
       <c r="G15">
-        <v>17.86620464708167</v>
+        <v>15.17727780486543</v>
       </c>
       <c r="H15">
-        <v>11.4875054447035</v>
+        <v>6.132862287072043</v>
       </c>
       <c r="I15">
-        <v>15.72881125152748</v>
+        <v>7.103988960129366</v>
       </c>
       <c r="J15">
-        <v>7.22721745996492</v>
+        <v>4.279115910719984</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.63878693817096</v>
+        <v>23.69529529666185</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.02366915240858</v>
+        <v>9.458566505171717</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.54799327749438</v>
+        <v>25.07287119957811</v>
       </c>
       <c r="C16">
-        <v>10.83248842501632</v>
+        <v>17.2806342871988</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.43939305367891</v>
+        <v>18.9912477870093</v>
       </c>
       <c r="F16">
-        <v>36.12272825500223</v>
+        <v>30.40078869518905</v>
       </c>
       <c r="G16">
-        <v>17.91472641563005</v>
+        <v>14.82226014968191</v>
       </c>
       <c r="H16">
-        <v>11.52370621061804</v>
+        <v>6.188980028202645</v>
       </c>
       <c r="I16">
-        <v>15.81736981345722</v>
+        <v>7.373970710519067</v>
       </c>
       <c r="J16">
-        <v>7.235836755116116</v>
+        <v>4.301698831958304</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.42249465489047</v>
+        <v>22.93369213241793</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.08366809895838</v>
+        <v>9.456462646042709</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.27207675512299</v>
+        <v>24.5810930335968</v>
       </c>
       <c r="C17">
-        <v>10.66868062614685</v>
+        <v>16.96603098699652</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.41352528260452</v>
+        <v>18.73163082675315</v>
       </c>
       <c r="F17">
-        <v>36.09734651996864</v>
+        <v>29.96787486087193</v>
       </c>
       <c r="G17">
-        <v>17.94751893558348</v>
+        <v>14.61482242480138</v>
       </c>
       <c r="H17">
-        <v>11.54655192439082</v>
+        <v>6.225769928344412</v>
       </c>
       <c r="I17">
-        <v>15.87283775738665</v>
+        <v>7.541806571085856</v>
       </c>
       <c r="J17">
-        <v>7.241262599545902</v>
+        <v>4.315792572592197</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.28910390136931</v>
+        <v>22.4550101990827</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.12184049171283</v>
+        <v>9.461734040715598</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.11073798900615</v>
+        <v>24.29391024655015</v>
       </c>
       <c r="C18">
-        <v>10.5732073956872</v>
+        <v>16.7825358892666</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.39910328742958</v>
+        <v>18.58220018045318</v>
       </c>
       <c r="F18">
-        <v>36.08381862901884</v>
+        <v>29.71983555830383</v>
       </c>
       <c r="G18">
-        <v>17.96748441524342</v>
+        <v>14.49933906759568</v>
       </c>
       <c r="H18">
-        <v>11.55992643025292</v>
+        <v>6.247762110491239</v>
       </c>
       <c r="I18">
-        <v>15.90516116346166</v>
+        <v>7.639130651627273</v>
       </c>
       <c r="J18">
-        <v>7.244434281553344</v>
+        <v>4.323987225420421</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.21214609824396</v>
+        <v>22.17544729431834</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.14429632280164</v>
+        <v>9.467087378063624</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.05565849865145</v>
+        <v>24.19593151784105</v>
       </c>
       <c r="C19">
-        <v>10.54066784127755</v>
+        <v>16.71997149471304</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.39429890000083</v>
+        <v>18.53159042105</v>
       </c>
       <c r="F19">
-        <v>36.07942246559171</v>
+        <v>29.63602419984661</v>
       </c>
       <c r="G19">
-        <v>17.97443324234078</v>
+        <v>14.46089785852518</v>
       </c>
       <c r="H19">
-        <v>11.56449503238402</v>
+        <v>6.255347721740153</v>
       </c>
       <c r="I19">
-        <v>15.91617746773882</v>
+        <v>7.672216617835827</v>
       </c>
       <c r="J19">
-        <v>7.245516906469509</v>
+        <v>4.32677697686616</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.18605138157895</v>
+        <v>22.08006192746984</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.1519852250042</v>
+        <v>9.469289989647379</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.30172171531134</v>
+        <v>24.63389109368024</v>
       </c>
       <c r="C20">
-        <v>10.68624855062548</v>
+        <v>16.9997844693667</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.41623176991982</v>
+        <v>18.75927916459758</v>
       </c>
       <c r="F20">
-        <v>36.09993765256256</v>
+        <v>30.01386104835613</v>
       </c>
       <c r="G20">
-        <v>17.94391366469279</v>
+        <v>14.63650866144197</v>
       </c>
       <c r="H20">
-        <v>11.5440957123248</v>
+        <v>6.221766699148482</v>
       </c>
       <c r="I20">
-        <v>15.86688967768886</v>
+        <v>7.523858002030076</v>
       </c>
       <c r="J20">
-        <v>7.240679745462939</v>
+        <v>4.314283134304318</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.30332842131819</v>
+        <v>22.50640473708105</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.11772518418546</v>
+        <v>9.460930590569927</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.09691613710391</v>
+        <v>26.0537658878381</v>
       </c>
       <c r="C21">
-        <v>11.16026839673493</v>
+        <v>17.90948317730549</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>23.49535728525168</v>
+        <v>19.52280960866676</v>
       </c>
       <c r="F21">
-        <v>36.18164514004837</v>
+        <v>31.29445647511239</v>
       </c>
       <c r="G21">
-        <v>17.85461912998875</v>
+        <v>15.27211356930306</v>
       </c>
       <c r="H21">
-        <v>11.47835636285802</v>
+        <v>6.119135668919201</v>
       </c>
       <c r="I21">
-        <v>15.70629907681465</v>
+        <v>7.034990701708803</v>
       </c>
       <c r="J21">
-        <v>7.2250347703375</v>
+        <v>4.273359472134288</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.69439358293953</v>
+        <v>23.88840315467418</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.0086018713589</v>
+        <v>9.461210973248331</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.59308502759218</v>
+        <v>26.94343685325198</v>
       </c>
       <c r="C22">
-        <v>11.45856316833509</v>
+        <v>18.48126295127294</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.5510739310241</v>
+        <v>20.02028858362268</v>
       </c>
       <c r="F22">
-        <v>36.24452711934163</v>
+        <v>32.13890292125556</v>
       </c>
       <c r="G22">
-        <v>17.80625715694342</v>
+        <v>15.72101280041131</v>
       </c>
       <c r="H22">
-        <v>11.43748019286905</v>
+        <v>6.06027566432151</v>
       </c>
       <c r="I22">
-        <v>15.605066218982</v>
+        <v>6.723092424149579</v>
       </c>
       <c r="J22">
-        <v>7.215260902480206</v>
+        <v>4.247396593977677</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.94739948807536</v>
+        <v>24.75442417321718</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.94176968297041</v>
+        <v>9.48395681965791</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.33042493178443</v>
+        <v>26.47209500617818</v>
       </c>
       <c r="C23">
-        <v>11.3004245336141</v>
+        <v>18.1781790896778</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.52097371067316</v>
+        <v>19.75493948726415</v>
       </c>
       <c r="F23">
-        <v>36.21010140626915</v>
+        <v>31.68756422684087</v>
       </c>
       <c r="G23">
-        <v>17.83114640190173</v>
+        <v>15.47839801397727</v>
       </c>
       <c r="H23">
-        <v>11.45910537754291</v>
+        <v>6.090897410024391</v>
       </c>
       <c r="I23">
-        <v>15.65875622369347</v>
+        <v>6.888827123828444</v>
       </c>
       <c r="J23">
-        <v>7.220436229273293</v>
+        <v>4.261181958495974</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.81262425785341</v>
+        <v>24.29558884226989</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.97702717539677</v>
+        <v>9.469663164132283</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.28832767149089</v>
+        <v>24.61003496286356</v>
       </c>
       <c r="C24">
-        <v>10.6783101309834</v>
+        <v>16.98453269621465</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.41500676544291</v>
+        <v>18.74677988407332</v>
       </c>
       <c r="F24">
-        <v>36.09876288537495</v>
+        <v>29.99306803712863</v>
       </c>
       <c r="G24">
-        <v>17.94554014379161</v>
+        <v>14.62669254866836</v>
       </c>
       <c r="H24">
-        <v>11.54520541760135</v>
+        <v>6.223573947699668</v>
       </c>
       <c r="I24">
-        <v>15.86957745198962</v>
+        <v>7.531969960875065</v>
       </c>
       <c r="J24">
-        <v>7.240943090880419</v>
+        <v>4.314965264838935</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.29689835035269</v>
+        <v>22.48318285990587</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.1195841264031</v>
+        <v>9.461286616835011</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.06343800502107</v>
+        <v>22.43611365518881</v>
       </c>
       <c r="C25">
-        <v>9.959544686137756</v>
+        <v>15.59993168345133</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.31818290058751</v>
+        <v>17.65580411751049</v>
       </c>
       <c r="F25">
-        <v>36.01962360480487</v>
+        <v>28.20292964512533</v>
       </c>
       <c r="G25">
-        <v>18.11103213131339</v>
+        <v>13.85428038614311</v>
       </c>
       <c r="H25">
-        <v>11.64703348110418</v>
+        <v>6.398096633084466</v>
       </c>
       <c r="I25">
-        <v>16.11303866356057</v>
+        <v>8.255814708273171</v>
       </c>
       <c r="J25">
-        <v>7.265009593096779</v>
+        <v>4.376358149269601</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.73193375801584</v>
+        <v>20.50936858391021</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.29245537891904</v>
+        <v>9.539813392588577</v>
       </c>
     </row>
   </sheetData>
